--- a/data/IT-CF-80016350821/ocds.xlsx
+++ b/data/IT-CF-80016350821/ocds.xlsx
@@ -59675,7 +59675,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -59737,7 +59737,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -59799,7 +59799,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -59861,7 +59861,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -59918,7 +59918,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -59980,7 +59980,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -60042,7 +60042,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -60104,7 +60104,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -60161,7 +60161,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -60389,7 +60389,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -60446,7 +60446,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -60560,7 +60560,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -60731,7 +60731,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -60845,7 +60845,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -60907,7 +60907,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -60969,7 +60969,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -61031,7 +61031,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -61088,7 +61088,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -61145,7 +61145,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -61316,7 +61316,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -61378,7 +61378,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -61554,7 +61554,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>03-PROCEDURA NEGOZIATA PREVIA PUBBLICAZIONE</t>
+          <t>03-PROCEDURA NEGOZIATA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -61668,7 +61668,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -61730,7 +61730,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -61792,7 +61792,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -61849,7 +61849,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -62025,7 +62025,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -62139,7 +62139,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -62196,7 +62196,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -62253,7 +62253,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -62310,7 +62310,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -62367,7 +62367,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -62424,7 +62424,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -62481,7 +62481,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -62538,7 +62538,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -62652,7 +62652,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -62766,7 +62766,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -62823,7 +62823,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -62880,7 +62880,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -62937,7 +62937,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -62994,7 +62994,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -63051,7 +63051,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -63108,7 +63108,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -63165,7 +63165,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -63222,7 +63222,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -63279,7 +63279,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -63393,7 +63393,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -63507,7 +63507,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -63745,7 +63745,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -63931,7 +63931,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -64248,7 +64248,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -64310,7 +64310,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -64367,7 +64367,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -64597,7 +64597,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -64654,7 +64654,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -64959,7 +64959,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -65083,7 +65083,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -65207,7 +65207,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -65321,7 +65321,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -65741,7 +65741,7 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -65798,7 +65798,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -66026,7 +66026,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -66150,7 +66150,7 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -66207,7 +66207,7 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
@@ -66269,7 +66269,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
@@ -66331,7 +66331,7 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -66388,7 +66388,7 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -66502,7 +66502,7 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -66559,7 +66559,7 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -66616,7 +66616,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
@@ -66735,7 +66735,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -66792,7 +66792,7 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
@@ -66854,7 +66854,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -66911,7 +66911,7 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -67330,7 +67330,7 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -67444,7 +67444,7 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -67501,7 +67501,7 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
@@ -67683,7 +67683,7 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -67797,7 +67797,7 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -67911,7 +67911,7 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -68093,7 +68093,7 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -68150,7 +68150,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -68398,7 +68398,7 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -68455,7 +68455,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -68512,7 +68512,7 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -68763,7 +68763,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -68887,7 +68887,7 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -68944,7 +68944,7 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -69001,7 +69001,7 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -69125,7 +69125,7 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -69250,7 +69250,7 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -69307,7 +69307,7 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -69421,7 +69421,7 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -69478,7 +69478,7 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
@@ -69540,7 +69540,7 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
@@ -69716,7 +69716,7 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -69889,7 +69889,7 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -70253,7 +70253,7 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -70310,7 +70310,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -70559,7 +70559,7 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -70673,7 +70673,7 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -70854,7 +70854,7 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -70911,7 +70911,7 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -71159,7 +71159,7 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -71216,7 +71216,7 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
@@ -71278,7 +71278,7 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -71335,7 +71335,7 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
@@ -71454,7 +71454,7 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>
@@ -71511,7 +71511,7 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
@@ -71630,7 +71630,7 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
     </row>

--- a/data/IT-CF-80016350821/ocds.xlsx
+++ b/data/IT-CF-80016350821/ocds.xlsx
@@ -59454,7 +59454,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -59521,7 +59521,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -59578,7 +59578,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -59635,7 +59635,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -59697,7 +59697,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -59759,7 +59759,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -59821,7 +59821,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -59878,7 +59878,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -59940,7 +59940,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -60002,7 +60002,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -60064,7 +60064,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -60121,7 +60121,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -60178,7 +60178,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -60235,7 +60235,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -60292,7 +60292,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -60349,7 +60349,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -60406,7 +60406,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -60463,7 +60463,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -60520,7 +60520,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -60577,7 +60577,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -60634,7 +60634,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -60691,7 +60691,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -60748,7 +60748,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -60805,7 +60805,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -60867,7 +60867,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -60929,7 +60929,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -60991,7 +60991,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -61048,7 +61048,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -61105,7 +61105,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -61162,7 +61162,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -61219,7 +61219,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -61276,7 +61276,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -61338,7 +61338,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -61400,7 +61400,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -61457,7 +61457,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -61514,7 +61514,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -61571,7 +61571,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -61628,7 +61628,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -61690,7 +61690,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -61752,7 +61752,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -61809,7 +61809,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -61871,7 +61871,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -61928,7 +61928,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -61985,7 +61985,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -62042,7 +62042,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -62099,7 +62099,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -62156,7 +62156,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -62213,7 +62213,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -62270,7 +62270,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -62327,7 +62327,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -62384,7 +62384,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -62441,7 +62441,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -62498,7 +62498,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -62555,7 +62555,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -62612,7 +62612,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -62669,7 +62669,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -62726,7 +62726,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -62783,7 +62783,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -62840,7 +62840,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -62897,7 +62897,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -62954,7 +62954,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -63011,7 +63011,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -63068,7 +63068,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -63125,7 +63125,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -63182,7 +63182,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -63239,7 +63239,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -63296,7 +63296,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -63353,7 +63353,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -63410,7 +63410,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -63467,7 +63467,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -63524,7 +63524,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -63581,7 +63581,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -63648,7 +63648,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -63705,7 +63705,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -63767,7 +63767,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -63834,7 +63834,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -63891,7 +63891,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -63953,7 +63953,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -64010,7 +64010,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -64074,7 +64074,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -64141,7 +64141,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -64208,7 +64208,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -64270,7 +64270,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -64327,7 +64327,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -64384,7 +64384,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -64441,7 +64441,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -64498,7 +64498,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -64557,7 +64557,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -64614,7 +64614,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -64671,7 +64671,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -64728,7 +64728,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -64795,7 +64795,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -64862,7 +64862,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -64919,7 +64919,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -64976,7 +64976,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -65043,7 +65043,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -65100,7 +65100,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -65167,7 +65167,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -65224,7 +65224,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -65281,7 +65281,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -65338,7 +65338,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -65406,7 +65406,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -65463,7 +65463,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -65530,7 +65530,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -65587,7 +65587,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -65644,7 +65644,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -65701,7 +65701,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -65758,7 +65758,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -65815,7 +65815,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -65872,7 +65872,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -65929,7 +65929,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -65986,7 +65986,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -66043,7 +66043,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -66110,7 +66110,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -66167,7 +66167,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -66229,7 +66229,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -66291,7 +66291,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -66348,7 +66348,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -66405,7 +66405,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -66462,7 +66462,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -66519,7 +66519,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -66576,7 +66576,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -66638,7 +66638,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -66695,7 +66695,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -66752,7 +66752,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -66814,7 +66814,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -66871,7 +66871,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -66928,7 +66928,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -66985,7 +66985,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -67052,7 +67052,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -67109,7 +67109,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -67166,7 +67166,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -67223,7 +67223,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -67290,7 +67290,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -67347,7 +67347,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -67404,7 +67404,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -67461,7 +67461,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -67528,7 +67528,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -67585,7 +67585,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -67643,7 +67643,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -67700,7 +67700,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -67757,7 +67757,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -67814,7 +67814,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -67871,7 +67871,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -67928,7 +67928,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -67985,7 +67985,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -68053,7 +68053,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -68110,7 +68110,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -68167,7 +68167,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -68234,7 +68234,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -68291,7 +68291,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -68358,7 +68358,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -68415,7 +68415,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -68472,7 +68472,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -68529,7 +68529,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -68589,7 +68589,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -68656,7 +68656,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -68723,7 +68723,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -68780,7 +68780,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -68847,7 +68847,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -68904,7 +68904,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -68961,7 +68961,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -69018,7 +69018,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -69085,7 +69085,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -69142,7 +69142,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -69210,7 +69210,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -69267,7 +69267,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -69324,7 +69324,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -69381,7 +69381,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -69438,7 +69438,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -69500,7 +69500,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -69562,7 +69562,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -69619,7 +69619,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -69676,7 +69676,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -69733,7 +69733,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -69792,7 +69792,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -69849,7 +69849,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -69906,7 +69906,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -69973,7 +69973,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -70030,7 +70030,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -70089,7 +70089,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -70156,7 +70156,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -70213,7 +70213,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -70270,7 +70270,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -70327,7 +70327,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -70394,7 +70394,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -70462,7 +70462,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -70519,7 +70519,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -70576,7 +70576,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -70633,7 +70633,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -70690,7 +70690,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -70747,7 +70747,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -70814,7 +70814,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -70871,7 +70871,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -70928,7 +70928,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -70985,7 +70985,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -71052,7 +71052,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -71119,7 +71119,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -71176,7 +71176,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -71238,7 +71238,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -71295,7 +71295,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -71357,7 +71357,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -71414,7 +71414,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -71471,7 +71471,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -71533,7 +71533,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -71590,7 +71590,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
